--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DIA_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DIA_prediccion..xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4C32F-3C9E-4366-9CA8-775E47449ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B14F1-B961-4FF4-98AE-B4CA9AC1A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -672,16 +685,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>490</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,7 +1737,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="2">
         <v>0.51300000000000001</v>
@@ -1759,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C3" s="2">
         <v>0.20100000000000001</v>
@@ -1770,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="C4" s="2">
         <v>0.161</v>
@@ -1781,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C5" s="2">
         <v>0.125</v>

--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DIA_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/OPTUNA SVM/DIA_prediccion..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\OPTUNA SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B14F1-B961-4FF4-98AE-B4CA9AC1A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363FD9CF-DBB4-49AC-BE83-9A61097C84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,10 +50,10 @@
     <t>Miércoles</t>
   </si>
   <si>
-    <t>Jueves</t>
+    <t>Sábado, Domingo</t>
   </si>
   <si>
-    <t>Sábado, Domingo</t>
+    <t>Lunes, Jueves</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
                   <c:v>Miércoles</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Jueves</c:v>
+                  <c:v>Lunes, Jueves</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1284</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>290</v>
